--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98600</v>
+      </c>
+      <c r="F8" s="3">
         <v>85900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>136700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>97600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>82200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>160300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>274500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F9" s="3">
         <v>23400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>39100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>24100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>21700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>45100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>80400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F10" s="3">
         <v>62500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>97600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>73500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>60500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>115200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>194100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>46200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>92700</v>
+      </c>
+      <c r="F17" s="3">
         <v>75900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>127200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>86800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>71600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>153500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>263600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>67400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17500</v>
+        <v>31600</v>
       </c>
       <c r="E21" s="3">
-        <v>22200</v>
+        <v>13000</v>
       </c>
       <c r="F21" s="3">
         <v>17500</v>
       </c>
       <c r="G21" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I21" s="3">
         <v>17800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>22600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>44000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>15900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,37 +1386,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-11200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,23 +1705,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F41" s="3">
         <v>72500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>126200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,23 +1771,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>88400</v>
+      </c>
+      <c r="F43" s="3">
         <v>80900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>67400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1621,23 +1806,29 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F44" s="3">
         <v>34700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>33800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1650,23 +1841,29 @@
       <c r="K44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1679,23 +1876,29 @@
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>211800</v>
+      </c>
+      <c r="F46" s="3">
         <v>193100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>234400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1708,23 +1911,29 @@
       <c r="K46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F47" s="3">
         <v>19900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
       </c>
@@ -1737,23 +1946,29 @@
       <c r="K47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F48" s="3">
         <v>19800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1766,23 +1981,29 @@
       <c r="K48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>324600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>241500</v>
+      </c>
+      <c r="F49" s="3">
         <v>246500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>252700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,23 +2156,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>643100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>494500</v>
+      </c>
+      <c r="F54" s="3">
         <v>479300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>509400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,23 +2225,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>13600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
       </c>
@@ -1995,22 +2256,28 @@
       <c r="K57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16300</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>12</v>
+      <c r="F58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -2024,23 +2291,29 @@
       <c r="K58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>103200</v>
+      </c>
+      <c r="F59" s="3">
         <v>86700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>68700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2053,23 +2326,29 @@
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>122600</v>
+      </c>
+      <c r="F60" s="3">
         <v>111700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>97200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2082,23 +2361,29 @@
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>173400</v>
+      </c>
+      <c r="F61" s="3">
         <v>177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>229700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2111,23 +2396,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F62" s="3">
         <v>45200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>40700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,23 +2536,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>352200</v>
+      </c>
+      <c r="F66" s="3">
         <v>336100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>370200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,22 +2656,28 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>168000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,23 +2726,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-138400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-141500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,23 +2866,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-24800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-28800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
-        <v>14500</v>
+        <v>6900</v>
       </c>
       <c r="F83" s="3">
         <v>7300</v>
       </c>
       <c r="G83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="3">
         <v>9100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F89" s="3">
         <v>20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>37100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-57100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>37400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-53800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>61700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>20900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,182 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
-        <v>43736</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42462</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E8" s="3">
         <v>81800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>136700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>78600</v>
+      </c>
+      <c r="J8" s="3">
         <v>97600</v>
       </c>
-      <c r="I8" s="3">
-        <v>82200</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>160300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E9" s="3">
         <v>22200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J9" s="3">
         <v>24100</v>
       </c>
-      <c r="I9" s="3">
-        <v>21700</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E10" s="3">
         <v>59600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>57200</v>
+      </c>
+      <c r="J10" s="3">
         <v>73500</v>
       </c>
-      <c r="I10" s="3">
-        <v>60500</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>194100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,43 +928,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,34 +978,37 @@
         <v>1900</v>
       </c>
       <c r="E15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="3">
         <v>2100</v>
       </c>
-      <c r="I15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E17" s="3">
         <v>59800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>65700</v>
+      </c>
+      <c r="J17" s="3">
         <v>86800</v>
       </c>
-      <c r="I17" s="3">
-        <v>71600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>153500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>263600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="I18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1111,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>31600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>17500</v>
       </c>
       <c r="I21" s="3">
         <v>17800</v>
       </c>
       <c r="J21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K21" s="3">
         <v>22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>24500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
-        <v>400</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E26" s="3">
         <v>24500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>24900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,16 +1451,19 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1410,25 +1472,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>24900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>24900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
-        <v>43736</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42462</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1794,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E41" s="3">
         <v>124200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1742,8 +1830,11 @@
       <c r="M41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,26 +1868,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E43" s="3">
         <v>89500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>88400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1812,26 +1906,29 @@
       <c r="M43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E44" s="3">
         <v>39800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>34700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1847,26 +1944,29 @@
       <c r="M44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1882,26 +1982,29 @@
       <c r="M45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E46" s="3">
         <v>270700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>211800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>193100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1917,26 +2020,29 @@
       <c r="M46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E47" s="3">
         <v>21200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
@@ -1952,26 +2058,29 @@
       <c r="M47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
         <v>26100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1987,26 +2096,29 @@
       <c r="M48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E49" s="3">
         <v>324600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>246500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>252700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2022,8 +2134,11 @@
       <c r="M49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,16 +2210,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
+      <c r="E52" s="3">
+        <v>500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
@@ -2118,8 +2239,8 @@
       <c r="J52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2127,8 +2248,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2286,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>646600</v>
+      </c>
+      <c r="E54" s="3">
         <v>643100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>494500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>479300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>509400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2197,8 +2324,11 @@
       <c r="M54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2358,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2262,8 +2394,11 @@
       <c r="M57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2274,14 +2409,14 @@
         <v>15000</v>
       </c>
       <c r="F58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="3">
         <v>16300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2297,26 +2432,29 @@
       <c r="M58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E59" s="3">
         <v>123700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>103200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2332,26 +2470,29 @@
       <c r="M59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E60" s="3">
         <v>149000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>111700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2367,26 +2508,29 @@
       <c r="M60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E61" s="3">
         <v>169700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>173400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>229700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2546,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E62" s="3">
         <v>104000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2437,8 +2584,11 @@
       <c r="M62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2698,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>505100</v>
+      </c>
+      <c r="E66" s="3">
         <v>500700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>352200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>336100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>370200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2577,8 +2736,11 @@
       <c r="M66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>168000</v>
@@ -2680,7 +2849,7 @@
         <v>168000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +2904,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-138400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2767,8 +2942,11 @@
       <c r="M72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3056,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E76" s="3">
         <v>142400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-24800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-28800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2907,8 +3094,11 @@
       <c r="M76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
-        <v>43736</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42462</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>24900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3231,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
       </c>
       <c r="I83" s="3">
         <v>7300</v>
       </c>
       <c r="J83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="3">
         <v>9100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3513,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3831,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>107500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-57100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>37400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>48800</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
       <c r="J101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
         <v>42600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>65800</v>
+      </c>
+      <c r="J102" s="3">
         <v>20900</v>
       </c>
-      <c r="I102" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42462</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E8" s="3">
         <v>109800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>85900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>136700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>97600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E9" s="3">
         <v>33500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E10" s="3">
         <v>76300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>73500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>97600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>194100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,46 +948,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>5700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,34 +1004,37 @@
         <v>1900</v>
       </c>
       <c r="F15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E17" s="3">
         <v>115600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>75900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>153500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>263600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,111 +1239,120 @@
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,8 +1526,8 @@
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1474,26 +1535,29 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42462</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,29 +1881,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E41" s="3">
         <v>136100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>124200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,29 +1961,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E43" s="3">
         <v>102000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>89500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>80900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1909,29 +2002,32 @@
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E44" s="3">
         <v>34000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1947,29 +2043,32 @@
       <c r="N44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E45" s="3">
         <v>17900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1985,29 +2084,32 @@
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E46" s="3">
         <v>290100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>270700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>211800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2023,29 +2125,32 @@
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E47" s="3">
         <v>19500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2061,29 +2166,32 @@
       <c r="N47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2099,29 +2207,32 @@
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E49" s="3">
         <v>310000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>324600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>246500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>252700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,19 +2330,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
+      <c r="F52" s="3">
+        <v>500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>12</v>
@@ -2242,8 +2362,8 @@
       <c r="K52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,29 +2412,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>654800</v>
+      </c>
+      <c r="E54" s="3">
         <v>646600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>643100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>494500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>479300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>509400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,29 +2489,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2412,14 +2546,14 @@
         <v>15000</v>
       </c>
       <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
         <v>16300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2435,29 +2569,32 @@
       <c r="N58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E59" s="3">
         <v>133300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>123700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>103200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2473,29 +2610,32 @@
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E60" s="3">
         <v>158200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>111700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>97200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2511,29 +2651,32 @@
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E61" s="3">
         <v>166100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>169700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>173400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>177000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2549,29 +2692,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E62" s="3">
         <v>103000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>104000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,29 +2856,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>502300</v>
+      </c>
+      <c r="E66" s="3">
         <v>505100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>352200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>336100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>370200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>168000</v>
@@ -2852,7 +3020,7 @@
         <v>168000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,29 +3078,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-138400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,29 +3242,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E76" s="3">
         <v>141600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-25800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-24800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-28800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42462</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,46 +3430,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7300</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
       </c>
       <c r="K83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L83" s="3">
         <v>15700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="3">
         <v>9100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E89" s="3">
         <v>17300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3734,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,118 +4077,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>107500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-57100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>37400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-300</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
       </c>
       <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>42600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-53800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>65800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,221 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42462</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>130400</v>
+      </c>
+      <c r="F8" s="3">
         <v>108900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>109800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>81800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>98600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>85900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>136700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>78600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>97600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>160300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>274500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>65400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F9" s="3">
         <v>29800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>33500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>25100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>23400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>21400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>24100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>45100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>80400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>19200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>87800</v>
+      </c>
+      <c r="F10" s="3">
         <v>79100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>76300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>59600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>73500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>97600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>57200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>73500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>115200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>194100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>46200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,49 +895,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,90 +985,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
+        <v>700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>8800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="F15" s="3">
         <v>1900</v>
       </c>
       <c r="G15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I15" s="3">
         <v>2100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1099,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>109900</v>
+        <v>138700</v>
       </c>
       <c r="E17" s="3">
+        <v>133600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>112100</v>
+      </c>
+      <c r="G17" s="3">
         <v>115600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>59800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>92700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>75900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>127200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>65700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>86800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>153500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>263600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>67400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-21400</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,90 +1212,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F21" s="3">
         <v>5400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>31600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>22200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>17800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>44000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,117 +1322,135 @@
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>15900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>24500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1490,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>24500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,49 +1631,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>12</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-11200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1725,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1772,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1913,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42462</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +2035,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,35 +2054,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F41" s="3">
         <v>80900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>136100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>124200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>86800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>72500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>126200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1923,8 +2097,14 @@
       <c r="O41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,35 +2144,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F43" s="3">
         <v>105400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>102000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>89500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>88400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>80900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>67400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2005,35 +2191,41 @@
       <c r="O43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F44" s="3">
         <v>36600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>34000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>39800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>29100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>34700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>33800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2046,35 +2238,41 @@
       <c r="O44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F45" s="3">
         <v>23200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>17200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2087,35 +2285,41 @@
       <c r="O45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>263100</v>
+      </c>
+      <c r="F46" s="3">
         <v>246100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>290100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>270700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>211800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>193100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>234400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2128,35 +2332,41 @@
       <c r="O46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E47" s="3">
         <v>29300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="G47" s="3">
         <v>19500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>21200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2169,35 +2379,41 @@
       <c r="O47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F48" s="3">
         <v>27200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>26100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>21800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2210,35 +2426,41 @@
       <c r="O48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>829300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>842800</v>
+      </c>
+      <c r="F49" s="3">
         <v>301700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>310000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>324600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>241500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>246500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>252700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2251,8 +2473,14 @@
       <c r="O49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2520,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,26 +2567,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="3">
         <v>50500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2365,17 +2605,23 @@
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,35 +2661,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1197100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="F54" s="3">
         <v>654800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>646600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>643100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>494500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>479300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>509400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2456,8 +2708,14 @@
       <c r="O54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2731,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,35 +2750,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>13600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2531,16 +2793,22 @@
       <c r="O57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>20300</v>
       </c>
       <c r="E58" s="3">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F58" s="3">
         <v>15000</v>
@@ -2549,16 +2817,16 @@
         <v>15000</v>
       </c>
       <c r="H58" s="3">
-        <v>16300</v>
+        <v>15000</v>
       </c>
       <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>12</v>
+      <c r="J58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>15000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>12</v>
@@ -2572,35 +2840,41 @@
       <c r="O58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>145900</v>
+      </c>
+      <c r="F59" s="3">
         <v>134800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>133300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>123700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>103200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>86700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>68700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2613,35 +2887,41 @@
       <c r="O59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F60" s="3">
         <v>160700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>158200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>149000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>122600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>111700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>97200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2654,35 +2934,41 @@
       <c r="O60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>339600</v>
+      </c>
+      <c r="F61" s="3">
         <v>162400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>166100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>169700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>173400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>177000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>229700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2695,35 +2981,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>171600</v>
+      </c>
+      <c r="F62" s="3">
         <v>101200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>103000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>104000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>54300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>45200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>40700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2736,8 +3028,14 @@
       <c r="O62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +3075,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +3122,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,35 +3169,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>747400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>766900</v>
+      </c>
+      <c r="F66" s="3">
         <v>502300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>505100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>352200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>336100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>370200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2900,8 +3216,14 @@
       <c r="O66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3239,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3282,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3329,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>168000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3040,8 +3376,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,35 +3423,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-140700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-138400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-141500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3122,8 +3470,14 @@
       <c r="O72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3517,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3564,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,35 +3611,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>449800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>458900</v>
+      </c>
+      <c r="F76" s="3">
         <v>152500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>141600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>142400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-25800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-24800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-28800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3286,8 +3658,14 @@
       <c r="O76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3705,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42462</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,49 +3827,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>14500</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
       </c>
       <c r="K83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N83" s="3">
         <v>15700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3917,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3964,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +4011,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +4058,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +4105,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F89" s="3">
         <v>10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-18000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>25500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>37100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +4175,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4265,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4312,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-46600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4382,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4425,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4472,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4519,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,54 +4566,66 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>176300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>107500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-9900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-57100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>37400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>48800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -4136,71 +4634,83 @@
         <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>42600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-53800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>61700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>65800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-10200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42462</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E8" s="3">
         <v>117300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>108900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>109800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>85900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>160300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>274500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E9" s="3">
         <v>41600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E10" s="3">
         <v>75700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>79100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>76300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>115200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>194100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,55 +909,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,66 +1007,72 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
         <v>3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>3300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1900</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
@@ -1059,34 +1081,37 @@
         <v>1900</v>
       </c>
       <c r="I15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J15" s="3">
         <v>2100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E17" s="3">
         <v>138700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>133600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>75900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>153500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>263600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-3200</v>
       </c>
       <c r="F18" s="3">
         <v>-3200</v>
       </c>
       <c r="G18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,102 +1246,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1328,129 +1367,138 @@
       <c r="H22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,19 +1694,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -1657,8 +1717,8 @@
       <c r="H29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1666,26 +1726,29 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-11200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42462</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,38 +2141,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>124200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2103,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,38 +2239,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E43" s="3">
         <v>119300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>125000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>102000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>89500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2197,38 +2289,41 @@
       <c r="Q43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E44" s="3">
         <v>64700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2244,38 +2339,41 @@
       <c r="Q44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E45" s="3">
         <v>34000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2291,38 +2389,41 @@
       <c r="Q45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>277200</v>
+      </c>
+      <c r="E46" s="3">
         <v>245400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>263100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>246100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>290100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>270700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>211800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>193100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2338,38 +2439,41 @@
       <c r="Q46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E47" s="3">
         <v>28800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>29300</v>
       </c>
       <c r="F47" s="3">
         <v>29300</v>
       </c>
       <c r="G47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H47" s="3">
         <v>19500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2385,38 +2489,41 @@
       <c r="Q47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2432,38 +2539,41 @@
       <c r="Q48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>809700</v>
+      </c>
+      <c r="E49" s="3">
         <v>829300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>842800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>301700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>310000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>324600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>246500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>252700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2479,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,28 +2689,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>50000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>50500</v>
       </c>
       <c r="F52" s="3">
         <v>50500</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
+      <c r="I52" s="3">
+        <v>500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
@@ -2611,8 +2730,8 @@
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2620,8 +2739,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,38 +2789,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1208800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1197100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1225900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>654800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>646600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>643100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>494500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>479300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>509400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2714,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,38 +2881,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E57" s="3">
         <v>22500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2799,19 +2929,22 @@
       <c r="Q57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>15000</v>
       </c>
       <c r="G58" s="3">
         <v>15000</v>
@@ -2823,14 +2956,14 @@
         <v>15000</v>
       </c>
       <c r="J58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="3">
         <v>16300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2846,38 +2979,41 @@
       <c r="Q58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E59" s="3">
         <v>128700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>145900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>123700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>103200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2893,38 +3029,41 @@
       <c r="Q59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E60" s="3">
         <v>171500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>160700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>158200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>149000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>111700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2940,38 +3079,41 @@
       <c r="Q60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E61" s="3">
         <v>348000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>339600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>162400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>166100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>169700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>173400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>177000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2987,38 +3129,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E62" s="3">
         <v>155700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>171600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>104000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3034,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,38 +3329,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>760800</v>
+      </c>
+      <c r="E66" s="3">
         <v>747400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>766900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>502300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>505100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>352200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>336100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>370200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3222,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>168000</v>
@@ -3365,7 +3532,7 @@
         <v>168000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3382,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,38 +3599,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-138400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3476,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,38 +3799,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E76" s="3">
         <v>449800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>458900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>142400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-25800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-24800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-28800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3664,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42462</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,55 +4026,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E83" s="3">
         <v>12500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7300</v>
       </c>
       <c r="M83" s="3">
         <v>7300</v>
       </c>
       <c r="N83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O83" s="3">
         <v>15700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q83" s="3">
         <v>9100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,55 +4396,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-221300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,145 +4814,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E100" s="3">
         <v>9200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>176300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>107500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-57100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>37400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-300</v>
       </c>
       <c r="M101" s="3">
         <v>-300</v>
       </c>
       <c r="N101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-53800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42462</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E8" s="3">
         <v>140300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>117300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>108900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>85900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>160300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>274500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E9" s="3">
         <v>43700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E10" s="3">
         <v>96600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>79100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>194100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>46200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,72 +1026,78 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3">
         <v>3300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1900</v>
       </c>
       <c r="H15" s="3">
         <v>1900</v>
@@ -1084,34 +1106,37 @@
         <v>1900</v>
       </c>
       <c r="J15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>329500</v>
+      </c>
+      <c r="E17" s="3">
         <v>143600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>138700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>153500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>263600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3200</v>
       </c>
       <c r="G18" s="3">
         <v>-3200</v>
       </c>
       <c r="H18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-168700</v>
+      </c>
+      <c r="E21" s="3">
         <v>5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1370,135 +1409,144 @@
       <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-187500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,11 +1768,11 @@
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>12</v>
@@ -1720,8 +1780,8 @@
       <c r="I29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1729,26 +1789,29 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
       </c>
       <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42462</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E41" s="3">
         <v>41000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2192,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,41 +2331,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E43" s="3">
         <v>143000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>119300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>105400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>102000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>89500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>88400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2292,41 +2384,44 @@
       <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E44" s="3">
         <v>69100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2342,41 +2437,44 @@
       <c r="R44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E45" s="3">
         <v>24100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2392,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E46" s="3">
         <v>277200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>245400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>263100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>246100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>290100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>270700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>211800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>193100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2442,41 +2543,44 @@
       <c r="R46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="3">
         <v>78500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>29300</v>
       </c>
       <c r="G47" s="3">
         <v>29300</v>
       </c>
       <c r="H47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I47" s="3">
         <v>19500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2492,41 +2596,44 @@
       <c r="R47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E48" s="3">
         <v>43500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>40200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2542,41 +2649,44 @@
       <c r="R48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E49" s="3">
         <v>809700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>829300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>842800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>301700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>310000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>324600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>246500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>252700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2592,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>50000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>50500</v>
       </c>
       <c r="G52" s="3">
         <v>50500</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>12</v>
+      <c r="J52" s="3">
+        <v>500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>12</v>
@@ -2733,8 +2852,8 @@
       <c r="O52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2742,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1208800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1197100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1225900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>654800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>646600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>643100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>494500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>479300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>509400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,41 +3011,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E57" s="3">
         <v>25700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2932,22 +3062,25 @@
       <c r="R57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15000</v>
       </c>
       <c r="H58" s="3">
         <v>15000</v>
@@ -2959,14 +3092,14 @@
         <v>15000</v>
       </c>
       <c r="K58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="3">
         <v>16300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2982,41 +3115,44 @@
       <c r="R58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E59" s="3">
         <v>150600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>145900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>134800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>123700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>86700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3032,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E60" s="3">
         <v>198900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>171500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>180900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>160700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>158200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>149000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>111700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3082,41 +3221,44 @@
       <c r="R60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>393100</v>
+      </c>
+      <c r="E61" s="3">
         <v>351400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>348000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>339600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>162400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>169700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>173400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>177000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3132,41 +3274,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>337400</v>
+      </c>
+      <c r="E62" s="3">
         <v>138300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>171600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>103000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>104000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3182,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1054600</v>
+      </c>
+      <c r="E66" s="3">
         <v>760800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>747400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>766900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>502300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>505100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>352200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>336100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>370200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3382,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>168000</v>
@@ -3535,7 +3702,7 @@
         <v>168000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3552,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-138400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3652,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343400</v>
+      </c>
+      <c r="E76" s="3">
         <v>448000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>449800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>458900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>142400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-25800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-24800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-28800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3852,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42462</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E83" s="3">
         <v>12400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7300</v>
       </c>
       <c r="N83" s="3">
         <v>7300</v>
       </c>
       <c r="O83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P83" s="3">
         <v>15700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-221300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E100" s="3">
         <v>7700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>176300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>107500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-57100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>37400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4876,95 +5124,101 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-300</v>
       </c>
       <c r="N101" s="3">
         <v>-300</v>
       </c>
       <c r="O101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42462</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E8" s="3">
         <v>128700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>140300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>117300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>108900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>160300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>274500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E9" s="3">
         <v>44100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E10" s="3">
         <v>84600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>96600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>115200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>194100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>46200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,78 +1046,84 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E14" s="3">
         <v>189800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3">
         <v>3300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3">
         <v>7400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1900</v>
       </c>
       <c r="I15" s="3">
         <v>1900</v>
@@ -1109,34 +1132,37 @@
         <v>1900</v>
       </c>
       <c r="K15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L15" s="3">
         <v>2100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E17" s="3">
         <v>329500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>143600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>153500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>263600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3200</v>
       </c>
       <c r="H18" s="3">
         <v>-3200</v>
       </c>
       <c r="I18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E20" s="3">
         <v>13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-168700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,141 +1452,150 @@
       <c r="J22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-187500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-41800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-145700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-108200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,11 +1832,11 @@
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>12</v>
@@ -1783,8 +1844,8 @@
       <c r="J29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1792,26 +1853,29 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-11200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-108200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-108200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42462</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2314,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>34400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,44 +2424,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E43" s="3">
         <v>132200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>143000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>119300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>105400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>102000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>89500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>88400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2387,44 +2480,47 @@
       <c r="S43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E44" s="3">
         <v>77000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2440,44 +2536,47 @@
       <c r="S44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E45" s="3">
         <v>27600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2493,44 +2592,47 @@
       <c r="S45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272600</v>
+      </c>
+      <c r="E46" s="3">
         <v>271100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>277200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>245400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>263100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>246100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>290100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>211800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>193100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2546,44 +2648,47 @@
       <c r="S46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>13000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>29300</v>
       </c>
       <c r="H47" s="3">
         <v>29300</v>
       </c>
       <c r="I47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J47" s="3">
         <v>19500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2599,44 +2704,47 @@
       <c r="S47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E48" s="3">
         <v>42900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2652,44 +2760,47 @@
       <c r="S48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1052500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1071000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>809700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>829300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>842800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>301700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>310000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>324600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>246500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>252700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,22 +2943,22 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>50000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>50500</v>
       </c>
       <c r="H52" s="3">
         <v>50500</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>12</v>
+      <c r="K52" s="3">
+        <v>500</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>12</v>
@@ -2855,8 +2975,8 @@
       <c r="P52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3040,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1372600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1398000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1208800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1197100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1225900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>654800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>646600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>643100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>494500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>479300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>509400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3142,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E57" s="3">
         <v>19100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3065,25 +3196,28 @@
       <c r="S57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E58" s="3">
         <v>31300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>15000</v>
       </c>
       <c r="I58" s="3">
         <v>15000</v>
@@ -3095,14 +3229,14 @@
         <v>15000</v>
       </c>
       <c r="L58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M58" s="3">
         <v>16300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>12</v>
       </c>
@@ -3118,44 +3252,47 @@
       <c r="S58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E59" s="3">
         <v>238000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>150600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>145900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>134800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>123700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>68700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3171,44 +3308,47 @@
       <c r="S59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E60" s="3">
         <v>288400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>171500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>180900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>160700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>158200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>149000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>111700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3224,44 +3364,47 @@
       <c r="S60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E61" s="3">
         <v>393100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>351400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>348000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>339600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>162400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>166100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>169700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>173400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>177000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,44 +3420,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>343300</v>
+      </c>
+      <c r="E62" s="3">
         <v>337400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>138300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>171600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>103000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>104000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3644,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1056100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1054600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>760800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>747400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>766900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>502300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>505100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>352200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>336100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>370200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>168000</v>
@@ -3705,7 +3873,7 @@
         <v>168000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3946,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-165300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-133400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-138400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4170,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E76" s="3">
         <v>343400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>448000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>449800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>458900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>142400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-25800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-24800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-28800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42462</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-108200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E83" s="3">
         <v>18800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7300</v>
       </c>
       <c r="O83" s="3">
         <v>7300</v>
       </c>
       <c r="P83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>15700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" s="3">
         <v>9100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-221300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E100" s="3">
         <v>50700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>176300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>107500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-300</v>
       </c>
       <c r="O101" s="3">
         <v>-300</v>
       </c>
       <c r="P101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>42600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,284 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42462</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>119100</v>
+      </c>
+      <c r="F8" s="3">
         <v>125800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>128700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>140300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>117300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>130400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>108900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>109800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>81800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>98600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>85900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>136700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>78600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>97600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>160300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>274500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>65400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F9" s="3">
         <v>51600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>44100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>43700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>41600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>42600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>29800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>33500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>21400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>24100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>45100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>80400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F10" s="3">
         <v>74200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>84600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>96600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>75700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>87800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>79100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>76300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>59600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>73500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>62500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>97600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>57200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>73500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>115200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>194100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>46200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +963,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,120 +1083,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F14" s="3">
         <v>4600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>189800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="3">
         <v>3300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>8800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3300</v>
       </c>
       <c r="H15" s="3">
         <v>2700</v>
       </c>
       <c r="I15" s="3">
-        <v>1900</v>
+        <v>3300</v>
       </c>
       <c r="J15" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>1900</v>
       </c>
       <c r="L15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N15" s="3">
         <v>2100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>11000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1232,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>211100</v>
+      </c>
+      <c r="F17" s="3">
         <v>151300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>329500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>143600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>138700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>133600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>112100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>115600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>59800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>92700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>75900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>127200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>65700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>86800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>153500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>263600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>67400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>12900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,128 +1380,142 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-24200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>13300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1500</v>
-      </c>
       <c r="H20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-168700</v>
       </c>
-      <c r="F21" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J21" s="3">
         <v>7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>31600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>22200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>17800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>17500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>22600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>44000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>7600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
+      <c r="D22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
@@ -1443,11 +1523,11 @@
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>12</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
@@ -1455,147 +1535,165 @@
       <c r="K22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>15900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-49700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-187500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-19900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>24500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-41800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1748,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-44900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-145700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-14800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>10500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-108200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>10900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-12200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,16 +1934,22 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-59500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
@@ -1836,46 +1958,52 @@
         <v>12</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>12</v>
+        <v>-300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>12</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-11200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2058,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2120,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>24200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-13300</v>
       </c>
-      <c r="F32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-108200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>10900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-23400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2306,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-108200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>10900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-23400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42462</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2463,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,50 +2487,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>34400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>41000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>80900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>136100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>124200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>86800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>72500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>126200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2371,8 +2545,14 @@
       <c r="T41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,50 +2607,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>118500</v>
+      </c>
+      <c r="F43" s="3">
         <v>136900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>132200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>143000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>119300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>125000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>105400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>102000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>89500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>88400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>80900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>67400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2483,50 +2669,56 @@
       <c r="T43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F44" s="3">
         <v>85400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>77000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>69100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>64700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>61700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>36600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>34000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>39800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>29100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>34700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>33800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2539,50 +2731,56 @@
       <c r="T44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F45" s="3">
         <v>18400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>24100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>34000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>32400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>23200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2595,50 +2793,56 @@
       <c r="T45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>308700</v>
+      </c>
+      <c r="F46" s="3">
         <v>272600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>271100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>277200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>245400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>263100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>246100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>290100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>270700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>211800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>193100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>234400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2651,50 +2855,56 @@
       <c r="T46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G47" s="3">
         <v>13000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>78500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>28800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>29300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>29300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>19500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>19900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2707,50 +2917,56 @@
       <c r="T47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F48" s="3">
         <v>45000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>42900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>43500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>40200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>27200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>26600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>26100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>21800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2763,50 +2979,56 @@
       <c r="T48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>512700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>523500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1052500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1071000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>809700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>829300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>842800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>301700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>310000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>324600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>241500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>246500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>252700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2819,8 +3041,14 @@
       <c r="T49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3103,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,41 +3165,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>50000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>50500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>50500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2978,17 +3218,23 @@
       <c r="Q52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,50 +3289,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>887400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1372600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1398000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1208800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1197100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1225900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>654800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>646600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>643100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>494500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>479300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>509400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>12</v>
       </c>
@@ -3099,8 +3351,14 @@
       <c r="T54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3379,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,50 +3403,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F57" s="3">
         <v>37500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>25700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>22500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>13600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3199,31 +3461,37 @@
       <c r="T57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F58" s="3">
         <v>33100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>31300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>22500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>20300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>18000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>15000</v>
       </c>
       <c r="K58" s="3">
         <v>15000</v>
@@ -3232,16 +3500,16 @@
         <v>15000</v>
       </c>
       <c r="M58" s="3">
-        <v>16300</v>
+        <v>15000</v>
       </c>
       <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>12</v>
+      <c r="O58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>15000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>12</v>
@@ -3255,50 +3523,56 @@
       <c r="T58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>121900</v>
+      </c>
+      <c r="F59" s="3">
         <v>233400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>238000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>150600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>128700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>145900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>134800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>133300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>123700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>103200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>86700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>68700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3311,50 +3585,56 @@
       <c r="T59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>196100</v>
+      </c>
+      <c r="F60" s="3">
         <v>304000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>288400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>198900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>171500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>180900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>160700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>158200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>149000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>122600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>111700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>97200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3367,50 +3647,56 @@
       <c r="T60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>374600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>404300</v>
+      </c>
+      <c r="F61" s="3">
         <v>385000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>393100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>351400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>348000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>339600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>162400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>166100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>169700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>173400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>177000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>229700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3423,50 +3709,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F62" s="3">
         <v>343300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>337400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>138300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>155700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>171600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>101200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>103000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>104000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>54300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>45200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>40700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3479,8 +3771,14 @@
       <c r="T62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3833,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3895,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,50 +3957,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>653800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>698900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1056100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1054600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>760800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>747400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>766900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>502300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>505100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>352200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>336100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>370200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3703,8 +4019,14 @@
       <c r="T66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4047,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4105,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4167,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3867,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>168000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3893,8 +4229,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,50 +4291,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-304500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-165300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-133400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-25100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-140700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-138400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-141500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>12</v>
       </c>
@@ -4005,8 +4353,14 @@
       <c r="T72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4415,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4477,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,50 +4539,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>188500</v>
+      </c>
+      <c r="F76" s="3">
         <v>316600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>343400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>448000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>449800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>458900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>152500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>141600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>142400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-25800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-24800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-28800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4229,8 +4601,14 @@
       <c r="T76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4663,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42462</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-108200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>10900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-23400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4820,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F83" s="3">
         <v>23200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>18800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>6900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>14500</v>
       </c>
       <c r="O83" s="3">
         <v>7300</v>
       </c>
       <c r="P83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S83" s="3">
         <v>15700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U83" s="3">
         <v>9100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4940,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5002,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5064,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5126,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5188,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>20800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>25500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>37100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5278,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5398,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5460,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-56300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-52000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-221300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-46600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5550,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5608,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5670,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5732,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,84 +5794,96 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>50700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>9200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>176300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>107500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-57100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>37400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>48800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-11100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-9000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -5394,86 +5892,98 @@
         <v>-200</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-41700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-31700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>42600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-53800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>61700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>65800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>20900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-10200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>BVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42462</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E8" s="3">
         <v>137100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>140300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>117300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>130400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>108900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>85900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>160300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>274500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E9" s="3">
         <v>47900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>42600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E10" s="3">
         <v>89200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>84600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>96600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>87800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>57200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>115200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>194100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>46200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,70 +978,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6800</v>
       </c>
-      <c r="G12" s="3">
-        <v>5800</v>
-      </c>
       <c r="H12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I12" s="3">
         <v>6400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,70 +1106,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>78900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
-        <v>189800</v>
-      </c>
       <c r="H14" s="3">
+        <v>314500</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3">
         <v>3300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,25 +1183,25 @@
         <v>2300</v>
       </c>
       <c r="E15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7800</v>
       </c>
-      <c r="G15" s="3">
-        <v>7400</v>
-      </c>
       <c r="H15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1900</v>
       </c>
       <c r="L15" s="3">
         <v>1900</v>
@@ -1187,34 +1210,37 @@
         <v>1900</v>
       </c>
       <c r="N15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E17" s="3">
         <v>130300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>211100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151300</v>
       </c>
-      <c r="G17" s="3">
-        <v>329500</v>
-      </c>
       <c r="H17" s="3">
+        <v>255500</v>
+      </c>
+      <c r="I17" s="3">
         <v>143600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>138700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>133600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>86800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>153500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>263600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-92000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3200</v>
       </c>
       <c r="K18" s="3">
         <v>-3200</v>
       </c>
       <c r="L18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1415,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,146 +1425,152 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24200</v>
       </c>
-      <c r="G20" s="3">
-        <v>13300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E21" s="3">
         <v>20800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-168700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="I21" s="3">
         <v>5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>44000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>12</v>
@@ -1541,159 +1581,168 @@
       <c r="M22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-187500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-130600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-41800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-145700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-79700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-108200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1949,25 +2010,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-59500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>12</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>12</v>
@@ -1975,8 +2036,8 @@
       <c r="M29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1984,26 +2045,29 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-11200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2193,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,123 +2205,129 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-13300</v>
-      </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-139200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-108200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-139200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-108200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42462</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,53 +2575,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E41" s="3">
         <v>29400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>124200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2551,8 +2638,11 @@
       <c r="V41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,53 +2703,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E43" s="3">
         <v>119600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>136900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>132200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>143000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>125000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>102000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>89500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>88400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2675,53 +2768,56 @@
       <c r="V43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E44" s="3">
         <v>96300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>88000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>77000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>64700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2737,53 +2833,56 @@
       <c r="V44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2799,53 +2898,56 @@
       <c r="V45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>249500</v>
+      </c>
+      <c r="E46" s="3">
         <v>260600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>308700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>272600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>271100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>277200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>245400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>263100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>246100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>290100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>211800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>234400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2861,53 +2963,56 @@
       <c r="V46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E47" s="3">
         <v>6500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2600</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H47" s="3">
         <v>13000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>29300</v>
       </c>
       <c r="K47" s="3">
         <v>29300</v>
       </c>
       <c r="L47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="M47" s="3">
         <v>19500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2923,53 +3028,56 @@
       <c r="V47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E48" s="3">
         <v>57100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2985,53 +3093,56 @@
       <c r="V48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500800</v>
+      </c>
+      <c r="E49" s="3">
         <v>512700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>523500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1052500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1071000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>809700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>829300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>842800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>301700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>310000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>324600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>246500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>252700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>12</v>
       </c>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3288,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3182,8 +3302,8 @@
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3192,22 +3312,22 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>50000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>50500</v>
       </c>
       <c r="K52" s="3">
         <v>50500</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>50500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>12</v>
+      <c r="N52" s="3">
+        <v>500</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>12</v>
@@ -3224,8 +3344,8 @@
       <c r="S52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3233,8 +3353,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,53 +3418,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>811100</v>
+      </c>
+      <c r="E54" s="3">
         <v>837000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>887400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1372600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1398000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1208800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1197100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1225900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>654800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>646600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>643100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>494500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>479300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>509400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>12</v>
       </c>
@@ -3357,8 +3483,11 @@
       <c r="V54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,53 +3535,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E57" s="3">
         <v>41400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3467,34 +3598,37 @@
       <c r="V57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E58" s="3">
         <v>11300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>15000</v>
       </c>
       <c r="L58" s="3">
         <v>15000</v>
@@ -3506,14 +3640,14 @@
         <v>15000</v>
       </c>
       <c r="O58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P58" s="3">
         <v>16300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>12</v>
       </c>
@@ -3529,53 +3663,56 @@
       <c r="V58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E59" s="3">
         <v>126400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>233400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>238000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>150600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>103200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>86700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3591,53 +3728,56 @@
       <c r="V59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E60" s="3">
         <v>179100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>196100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>304000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>288400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>171500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>180900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>160700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>158200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>149000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3653,53 +3793,56 @@
       <c r="V60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E61" s="3">
         <v>374600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>404300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>385000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>393100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>351400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>348000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>339600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>166100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>169700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>173400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>177000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3715,53 +3858,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E62" s="3">
         <v>49900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>343300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>337400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>138300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>171600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>104000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,53 +4118,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>633600</v>
+      </c>
+      <c r="E66" s="3">
         <v>653800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>698900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1056100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1054600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>760800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>747400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>766900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>502300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>505100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>352200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>336100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>370200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>12</v>
       </c>
@@ -4025,8 +4183,11 @@
       <c r="V66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4209,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>168000</v>
@@ -4218,7 +4386,7 @@
         <v>168000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,53 +4468,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-315400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-308100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-304500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-165300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-133400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-140700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-138400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-141500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>12</v>
       </c>
@@ -4359,8 +4533,11 @@
       <c r="V72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,53 +4728,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E76" s="3">
         <v>183200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>188500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>316600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>448000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>449800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>458900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>152500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>141600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>142400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-25800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-24800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4607,8 +4793,11 @@
       <c r="V76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42462</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-139200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-108200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E83" s="3">
         <v>14600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7300</v>
       </c>
       <c r="R83" s="3">
         <v>7300</v>
       </c>
       <c r="S83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T83" s="3">
         <v>15700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83" s="3">
         <v>9100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>33500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-221300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,190 +6043,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>50700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>176300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>107500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>37400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-300</v>
       </c>
       <c r="R101" s="3">
         <v>-300</v>
       </c>
       <c r="S101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-53800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>61700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>65800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>12</v>
       </c>
     </row>
